--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-smartcard.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,9 +323,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:type</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
     <t>Extension.url</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -487,8 +487,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>./low</t>
@@ -518,43 +518,25 @@
     <t>./high</t>
   </si>
   <si>
-    <t>Extension.extension:cancellationDate</t>
-  </si>
-  <si>
-    <t>cancellationDate</t>
-  </si>
-  <si>
-    <t>dateOpposition : Date de mise en opposition de la carte.</t>
-  </si>
-  <si>
-    <t>Extension.extension:cancellationDate.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:cancellationDate.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:cancellationDate.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:cancellationDate.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Extension.extension:date.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:date.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:date.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:date.value[x]</t>
+    <t>Extension.extension:oppositionDate</t>
+  </si>
+  <si>
+    <t>oppositionDate</t>
+  </si>
+  <si>
+    <t>dateOpposition : Date d'opposition de la carte.</t>
+  </si>
+  <si>
+    <t>Extension.extension:oppositionDate.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:oppositionDate.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:oppositionDate.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:oppositionDate.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -871,7 +853,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -880,9 +862,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.97265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1333,24 +1315,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1375,10 +1357,10 @@
         <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1438,7 +1420,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -1449,10 +1431,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1552,10 +1534,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1584,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1644,7 +1626,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>82</v>
@@ -1655,10 +1637,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1681,16 +1663,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1698,7 +1680,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1740,22 +1722,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1850,13 +1832,13 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1895,7 +1877,7 @@
         <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1955,7 +1937,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -1969,7 +1951,7 @@
         <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2072,7 +2054,7 @@
         <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2101,7 +2083,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2161,7 +2143,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>82</v>
@@ -2175,7 +2157,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2198,16 +2180,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2257,22 +2239,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2369,13 +2351,13 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -2414,7 +2396,7 @@
         <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2474,7 +2456,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -2488,7 +2470,7 @@
         <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2591,7 +2573,7 @@
         <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2620,7 +2602,7 @@
         <v>30</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2680,7 +2662,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>82</v>
@@ -2694,7 +2676,7 @@
         <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2717,16 +2699,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2776,22 +2758,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2888,13 +2870,13 @@
         <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -3096,13 +3078,13 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -3353,7 +3335,7 @@
         <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3413,7 +3395,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -3427,7 +3409,7 @@
         <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3530,7 +3512,7 @@
         <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3559,7 +3541,7 @@
         <v>30</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3619,7 +3601,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -3633,7 +3615,7 @@
         <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3656,16 +3638,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3715,22 +3697,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -3827,34 +3809,32 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -3866,22 +3846,24 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>76</v>
@@ -3923,30 +3905,30 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3957,7 +3939,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -3969,13 +3951,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4026,7 +4008,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4038,531 +4020,10 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF32" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
